--- a/examples/emulators/mcmc/figures/nn-6-64-10000.xlsx
+++ b/examples/emulators/mcmc/figures/nn-6-64-10000.xlsx
@@ -462,37 +462,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7532618765345047</v>
+        <v>0.7540294089081465</v>
       </c>
       <c r="C2">
-        <v>0.003380769599918348</v>
+        <v>0.003349436142484493</v>
       </c>
       <c r="D2">
-        <v>0.7467624447587156</v>
+        <v>0.7476368590947663</v>
       </c>
       <c r="E2">
-        <v>0.750993841630353</v>
+        <v>0.7517761725570833</v>
       </c>
       <c r="F2">
-        <v>0.7532684025059825</v>
+        <v>0.7540225142468689</v>
       </c>
       <c r="G2">
-        <v>0.7554967666499514</v>
+        <v>0.7562802655669241</v>
       </c>
       <c r="H2">
-        <v>0.7600639300618998</v>
+        <v>0.7606186581115567</v>
       </c>
       <c r="I2">
-        <v>1.000613136206828</v>
+        <v>1.001135573397721</v>
       </c>
       <c r="J2">
-        <v>3669.280546139085</v>
+        <v>2806.735574708804</v>
       </c>
       <c r="K2">
-        <v>35.16981988583018</v>
+        <v>32.23718910085508</v>
       </c>
       <c r="L2">
-        <v>104.3303763866425</v>
+        <v>87.06514596939087</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -500,37 +500,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.00019727846942</v>
+        <v>0.9992321212510448</v>
       </c>
       <c r="C3">
-        <v>0.003735320055837227</v>
+        <v>0.003692737656298968</v>
       </c>
       <c r="D3">
-        <v>0.9928593447357567</v>
+        <v>0.9918669805714865</v>
       </c>
       <c r="E3">
-        <v>0.9976747723110875</v>
+        <v>0.9968085947660517</v>
       </c>
       <c r="F3">
-        <v>1.000163679482852</v>
+        <v>0.99923658704741</v>
       </c>
       <c r="G3">
-        <v>1.002679563917442</v>
+        <v>1.00179953352926</v>
       </c>
       <c r="H3">
-        <v>1.007544125282269</v>
+        <v>1.006379771860565</v>
       </c>
       <c r="I3">
-        <v>1.000108740429571</v>
+        <v>1.002469105547468</v>
       </c>
       <c r="J3">
-        <v>2307.368077793918</v>
+        <v>2074.183823447223</v>
       </c>
       <c r="K3">
-        <v>22.11597578487537</v>
+        <v>23.82335434407284</v>
       </c>
       <c r="L3">
-        <v>104.3303763866425</v>
+        <v>87.06514596939087</v>
       </c>
     </row>
   </sheetData>
